--- a/similarities/split_global/harmonic_similarity_timestamps_106.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000'), ('0:01:21.770000', '0:01:27.560000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:04:12.800000', '0:04:14.460000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=81.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=252.8']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:02.360000', '0:00:05.680000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+          <t>('0:00:11.320000', '0:00:14.100000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:00.459543', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:00:43.320000', '0:00:45.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:37.740000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:27.940000', '0:00:33.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=27.94</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:01.140000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:08.980000', '0:00:20.700000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=8.98</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.660000', '0:00:17.100000'), ('0:00:00.780000', '0:00:05.260000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:09.060000', '0:00:12.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.800000', '0:00:43.900000'), ('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:24.460000', '0:00:30.010000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=12.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
